--- a/docs/paper/RokiG/RokiG - Modeling assessment.xlsx
+++ b/docs/paper/RokiG/RokiG - Modeling assessment.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6536BDBA-053B-E443-A920-EB946622ADAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-3960" yWindow="-21100" windowWidth="25500" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="57">
   <si>
     <t>Category</t>
   </si>
@@ -198,12 +200,15 @@
   </si>
   <si>
     <t>FLEX interaction and material-related calculation (extenstion with further budget)</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -283,11 +288,138 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -421,14 +553,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:E17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Category" dataDxfId="4"/>
-    <tableColumn id="2" name="Aspect" dataDxfId="3"/>
-    <tableColumn id="3" name="Evaluation" dataDxfId="2"/>
-    <tableColumn id="5" name="Time (week)" dataDxfId="1"/>
-    <tableColumn id="4" name="Note" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Aspect" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Evaluation" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Time (week)" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Note" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{02476F73-186F-8249-9EAF-92C11BC06BA6}" name="Table13" displayName="Table13" ref="A1:E17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E17" xr:uid="{02476F73-186F-8249-9EAF-92C11BC06BA6}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{157DBD19-4057-FB40-A8DA-26BD6DB5BA55}" name="Category" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D4459020-0B7D-F245-B4D2-A0FAC3642699}" name="Aspect" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{9FAEA023-D9FB-0A41-A055-CF5FAFFB8E80}" name="Evaluation" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{72C66BA4-29C9-414A-96D7-1E2896C25B78}" name="Status" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{7B9A60C2-2894-E14F-BC9C-641C38D82240}" name="Note" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -696,23 +842,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="89.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="166.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="166.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -729,7 +875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -746,7 +892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -763,7 +909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -780,7 +926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -797,7 +943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -814,7 +960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -831,7 +977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -848,7 +994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -865,7 +1011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -882,7 +1028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -899,7 +1045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -916,7 +1062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -933,7 +1079,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -950,7 +1096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -967,7 +1113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -984,7 +1130,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1001,7 +1147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -1012,7 +1158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
@@ -1026,7 +1172,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1040,7 +1186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
@@ -1054,7 +1200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
@@ -1075,4 +1221,270 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B093772-F3D2-5343-A2A6-FF57A0A373EE}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="135.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>